--- a/biology/Zoologie/Dorcopsis_à_raies_blanches/Dorcopsis_à_raies_blanches.xlsx
+++ b/biology/Zoologie/Dorcopsis_à_raies_blanches/Dorcopsis_à_raies_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dorcopsis_%C3%A0_raies_blanches</t>
+          <t>Dorcopsis_à_raies_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorcopsis hageni
-Le Wallaby à raies blanches ou Dorcopsis à raies blanches (Dorcopsis hageni[1]) est une espèce de marsupiaux de la famille des Macropodidae. Il est endémique en Indonésie et en Papouasie-Nouvelle-Guinée.
+Le Wallaby à raies blanches ou Dorcopsis à raies blanches (Dorcopsis hageni) est une espèce de marsupiaux de la famille des Macropodidae. Il est endémique en Indonésie et en Papouasie-Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dorcopsis_%C3%A0_raies_blanches</t>
+          <t>Dorcopsis_à_raies_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, hageni, lui a été donné en l'honneur de Bernhard Hagen (de) (1853–1919), médecin, explorateur, anthropologue et ethnologue allemand, qui avait fait don de peaux et de crânes au Museum d'histoire naturelle de Karlsruhe[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, hageni, lui a été donné en l'honneur de Bernhard Hagen (de) (1853–1919), médecin, explorateur, anthropologue et ethnologue allemand, qui avait fait don de peaux et de crânes au Museum d'histoire naturelle de Karlsruhe. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dorcopsis_%C3%A0_raies_blanches</t>
+          <t>Dorcopsis_à_raies_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Karl Maria Heller, « Zwei neue Beutelthiere aus Deutsch Neu Guinea nebst einer Aufzählung der bekannten papuanischen Säugethiere », Abhandlungen und Berichte der Königlichen Zoologischen und Anthropologisch-Ethnologischen Museen  Dresden, vol. 8,‎ 1897, p. 1-7.
 </t>
